--- a/ion/services/sa/observatory/test_xls/test505-rm-assets.xlsx
+++ b/ion/services/sa/observatory/test_xls/test505-rm-assets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="848" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="848" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AssetTypes" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="295">
   <si>
     <t>Action</t>
   </si>
@@ -895,13 +895,25 @@
   </si>
   <si>
     <t>Glider</t>
+  </si>
+  <si>
+    <t>Updated SIM card</t>
+  </si>
+  <si>
+    <t>not functioning</t>
+  </si>
+  <si>
+    <t>05/25/2016</t>
+  </si>
+  <si>
+    <t>121.03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -926,6 +938,12 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -1552,7 +1570,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1676,8 +1694,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1880,7 +1922,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1954,8 +1995,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1996,6 +2039,14 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2591,7 +2642,7 @@
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -2658,7 +2709,7 @@
       <c r="A3" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="118" t="s">
         <v>289</v>
       </c>
       <c r="C3" s="26" t="s">
@@ -2812,7 +2863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D13" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D13" workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
@@ -2825,7 +2876,7 @@
     <col min="6" max="6" width="10.625" style="49" customWidth="1"/>
     <col min="7" max="7" width="27.75" style="49" customWidth="1"/>
     <col min="8" max="8" width="12.75" style="49" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="108" customWidth="1"/>
+    <col min="9" max="9" width="17.75" style="107" customWidth="1"/>
     <col min="10" max="10" width="17.875" style="49" customWidth="1"/>
     <col min="11" max="11" width="10.125" style="49" customWidth="1"/>
     <col min="12" max="12" width="8.375" style="49" customWidth="1"/>
@@ -2861,7 +2912,7 @@
       <c r="H1" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="105" t="s">
+      <c r="I1" s="104" t="s">
         <v>260</v>
       </c>
       <c r="J1" s="51" t="s">
@@ -2911,7 +2962,7 @@
       <c r="H2" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="105" t="s">
         <v>279</v>
       </c>
       <c r="J2" s="54"/>
@@ -2959,7 +3010,7 @@
       <c r="H3" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="106" t="s">
+      <c r="I3" s="105" t="s">
         <v>277</v>
       </c>
       <c r="J3" s="54"/>
@@ -3007,7 +3058,7 @@
       <c r="H4" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="106" t="s">
+      <c r="I4" s="105" t="s">
         <v>278</v>
       </c>
       <c r="J4" s="54"/>
@@ -3055,7 +3106,7 @@
       <c r="H5" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="106" t="s">
+      <c r="I5" s="105" t="s">
         <v>277</v>
       </c>
       <c r="J5" s="60" t="s">
@@ -3105,7 +3156,7 @@
       <c r="H6" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="106" t="s">
+      <c r="I6" s="105" t="s">
         <v>280</v>
       </c>
       <c r="J6" s="54"/>
@@ -3153,7 +3204,7 @@
       <c r="H7" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="106" t="s">
+      <c r="I7" s="105" t="s">
         <v>277</v>
       </c>
       <c r="J7" s="54"/>
@@ -3201,7 +3252,7 @@
       <c r="H8" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="I8" s="106" t="s">
+      <c r="I8" s="105" t="s">
         <v>280</v>
       </c>
       <c r="J8" s="54"/>
@@ -3249,7 +3300,7 @@
       <c r="H9" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="106" t="s">
+      <c r="I9" s="105" t="s">
         <v>280</v>
       </c>
       <c r="J9" s="54"/>
@@ -3297,7 +3348,7 @@
       <c r="H10" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="106" t="s">
+      <c r="I10" s="105" t="s">
         <v>280</v>
       </c>
       <c r="J10" s="54"/>
@@ -3345,7 +3396,7 @@
       <c r="H11" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="106" t="s">
+      <c r="I11" s="105" t="s">
         <v>280</v>
       </c>
       <c r="J11" s="54"/>
@@ -3393,7 +3444,7 @@
       <c r="H12" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="106" t="s">
+      <c r="I12" s="105" t="s">
         <v>281</v>
       </c>
       <c r="J12" s="54"/>
@@ -3441,7 +3492,7 @@
       <c r="H13" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="I13" s="107" t="s">
+      <c r="I13" s="106" t="s">
         <v>262</v>
       </c>
       <c r="J13" s="54"/>
@@ -3489,7 +3540,7 @@
       <c r="H14" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="106" t="s">
+      <c r="I14" s="105" t="s">
         <v>280</v>
       </c>
       <c r="J14" s="54"/>
@@ -3537,7 +3588,7 @@
       <c r="H15" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="I15" s="107" t="s">
+      <c r="I15" s="106" t="s">
         <v>262</v>
       </c>
       <c r="J15" s="54"/>
@@ -3585,7 +3636,7 @@
       <c r="H16" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="106" t="s">
+      <c r="I16" s="105" t="s">
         <v>281</v>
       </c>
       <c r="J16" s="54"/>
@@ -3633,7 +3684,7 @@
       <c r="H17" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="106" t="s">
+      <c r="I17" s="105" t="s">
         <v>280</v>
       </c>
       <c r="J17" s="54"/>
@@ -3681,7 +3732,7 @@
       <c r="H18" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="I18" s="106" t="s">
+      <c r="I18" s="105" t="s">
         <v>263</v>
       </c>
       <c r="J18" s="54"/>
@@ -3729,7 +3780,7 @@
       <c r="H19" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="I19" s="106" t="s">
+      <c r="I19" s="105" t="s">
         <v>262</v>
       </c>
       <c r="J19" s="54"/>
@@ -3777,7 +3828,7 @@
       <c r="H20" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="I20" s="106" t="s">
+      <c r="I20" s="105" t="s">
         <v>263</v>
       </c>
       <c r="J20" s="54" t="s">
@@ -3827,7 +3878,7 @@
       <c r="H21" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="I21" s="106" t="s">
+      <c r="I21" s="105" t="s">
         <v>263</v>
       </c>
       <c r="J21" s="54" t="s">
@@ -3877,7 +3928,7 @@
       <c r="H22" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="I22" s="106" t="s">
+      <c r="I22" s="105" t="s">
         <v>263</v>
       </c>
       <c r="J22" s="54" t="s">
@@ -3927,7 +3978,7 @@
       <c r="H23" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="I23" s="106" t="s">
+      <c r="I23" s="105" t="s">
         <v>263</v>
       </c>
       <c r="J23" s="54" t="s">
@@ -3977,7 +4028,7 @@
       <c r="H24" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="I24" s="106" t="s">
+      <c r="I24" s="105" t="s">
         <v>263</v>
       </c>
       <c r="J24" s="54" t="s">
@@ -4027,7 +4078,7 @@
       <c r="H25" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="I25" s="106" t="s">
+      <c r="I25" s="105" t="s">
         <v>264</v>
       </c>
       <c r="J25" s="54"/>
@@ -4075,7 +4126,7 @@
       <c r="H26" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="I26" s="106" t="s">
+      <c r="I26" s="105" t="s">
         <v>264</v>
       </c>
       <c r="J26" s="54"/>
@@ -4123,7 +4174,7 @@
       <c r="H27" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="I27" s="106" t="s">
+      <c r="I27" s="105" t="s">
         <v>276</v>
       </c>
       <c r="J27" s="60" t="s">
@@ -4173,7 +4224,7 @@
       <c r="H28" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="I28" s="106" t="s">
+      <c r="I28" s="105" t="s">
         <v>276</v>
       </c>
       <c r="J28" s="65" t="s">
@@ -4223,7 +4274,7 @@
       <c r="H29" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="I29" s="106" t="s">
+      <c r="I29" s="105" t="s">
         <v>276</v>
       </c>
       <c r="J29" s="65" t="s">
@@ -4273,7 +4324,7 @@
       <c r="H30" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="I30" s="106" t="s">
+      <c r="I30" s="105" t="s">
         <v>276</v>
       </c>
       <c r="J30" s="54" t="s">
@@ -4323,7 +4374,7 @@
       <c r="H31" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="I31" s="106" t="s">
+      <c r="I31" s="105" t="s">
         <v>280</v>
       </c>
       <c r="J31" s="54"/>
@@ -4371,7 +4422,7 @@
       <c r="H32" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="I32" s="106" t="s">
+      <c r="I32" s="105" t="s">
         <v>280</v>
       </c>
       <c r="J32" s="54"/>
@@ -4419,7 +4470,7 @@
       <c r="H33" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="I33" s="106" t="s">
+      <c r="I33" s="105" t="s">
         <v>263</v>
       </c>
       <c r="J33" s="54" t="s">
@@ -4469,7 +4520,7 @@
       <c r="H34" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="I34" s="106" t="s">
+      <c r="I34" s="105" t="s">
         <v>263</v>
       </c>
       <c r="J34" s="54" t="s">
@@ -4519,7 +4570,7 @@
       <c r="H35" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="I35" s="106" t="s">
+      <c r="I35" s="105" t="s">
         <v>276</v>
       </c>
       <c r="J35" s="55" t="s">
@@ -4569,7 +4620,7 @@
       <c r="H36" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="I36" s="106" t="s">
+      <c r="I36" s="105" t="s">
         <v>276</v>
       </c>
       <c r="J36" s="55" t="s">
@@ -4619,7 +4670,7 @@
       <c r="H37" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="I37" s="106" t="s">
+      <c r="I37" s="105" t="s">
         <v>263</v>
       </c>
       <c r="J37" s="54"/>
@@ -4667,7 +4718,7 @@
       <c r="H38" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="I38" s="107" t="s">
+      <c r="I38" s="106" t="s">
         <v>262</v>
       </c>
       <c r="J38" s="54"/>
@@ -4715,7 +4766,7 @@
       <c r="H39" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="I39" s="106" t="s">
+      <c r="I39" s="105" t="s">
         <v>276</v>
       </c>
       <c r="J39" s="55" t="s">
@@ -4765,7 +4816,7 @@
       <c r="H40" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="I40" s="106" t="s">
+      <c r="I40" s="105" t="s">
         <v>276</v>
       </c>
       <c r="J40" s="73" t="s">
@@ -4811,8 +4862,8 @@
   </sheetPr>
   <dimension ref="A1:IV9"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:XFD3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
@@ -4830,17 +4881,17 @@
     <col min="11" max="11" width="11.625" style="75" customWidth="1"/>
     <col min="12" max="12" width="21.875" style="75" customWidth="1"/>
     <col min="13" max="13" width="12.25" style="75" customWidth="1"/>
-    <col min="14" max="14" width="12.25" style="108" customWidth="1"/>
+    <col min="14" max="14" width="12.25" style="107" customWidth="1"/>
     <col min="15" max="16" width="12.25" style="75" customWidth="1"/>
-    <col min="17" max="17" width="12.25" style="108" customWidth="1"/>
+    <col min="17" max="17" width="12.25" style="107" customWidth="1"/>
     <col min="18" max="26" width="12.25" style="75" customWidth="1"/>
-    <col min="27" max="27" width="12.25" style="108" customWidth="1"/>
+    <col min="27" max="27" width="12.25" style="107" customWidth="1"/>
     <col min="28" max="28" width="30.25" style="75" customWidth="1"/>
     <col min="29" max="29" width="11.125" style="75" customWidth="1"/>
     <col min="30" max="30" width="18.625" style="75" customWidth="1"/>
     <col min="31" max="31" width="20" style="75" customWidth="1"/>
     <col min="32" max="40" width="12.25" style="75" customWidth="1"/>
-    <col min="41" max="41" width="12.25" style="108" customWidth="1"/>
+    <col min="41" max="41" width="12.25" style="107" customWidth="1"/>
     <col min="42" max="256" width="12.25" style="75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4884,7 +4935,7 @@
       <c r="M1" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="109" t="s">
+      <c r="N1" s="108" t="s">
         <v>140</v>
       </c>
       <c r="O1" s="78" t="s">
@@ -4893,7 +4944,7 @@
       <c r="P1" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="Q1" s="109" t="s">
+      <c r="Q1" s="108" t="s">
         <v>116</v>
       </c>
       <c r="R1" s="78" t="s">
@@ -4923,7 +4974,7 @@
       <c r="Z1" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="AA1" s="109" t="s">
+      <c r="AA1" s="108" t="s">
         <v>125</v>
       </c>
       <c r="AB1" s="78" t="s">
@@ -4965,7 +5016,7 @@
       <c r="AN1" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="AO1" s="115" t="s">
+      <c r="AO1" s="114" t="s">
         <v>201</v>
       </c>
       <c r="AP1" s="81"/>
@@ -4984,8 +5035,8 @@
       <c r="C2" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="82" t="s">
-        <v>5</v>
+      <c r="D2" s="119" t="s">
+        <v>291</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>208</v>
@@ -5014,7 +5065,7 @@
       <c r="M2" s="87" t="s">
         <v>216</v>
       </c>
-      <c r="N2" s="113" t="s">
+      <c r="N2" s="112" t="s">
         <v>288</v>
       </c>
       <c r="O2" s="87" t="s">
@@ -5023,7 +5074,7 @@
       <c r="P2" s="87" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" s="113" t="s">
+      <c r="Q2" s="112" t="s">
         <v>282</v>
       </c>
       <c r="R2" s="87" t="s">
@@ -5047,14 +5098,14 @@
       <c r="X2" s="89" t="s">
         <v>225</v>
       </c>
-      <c r="Y2" s="87" t="s">
-        <v>226</v>
+      <c r="Y2" s="112" t="s">
+        <v>294</v>
       </c>
       <c r="Z2" s="87" t="s">
         <v>227</v>
       </c>
-      <c r="AA2" s="113" t="s">
-        <v>285</v>
+      <c r="AA2" s="112" t="s">
+        <v>293</v>
       </c>
       <c r="AB2" s="87" t="s">
         <v>15</v>
@@ -5062,30 +5113,30 @@
       <c r="AC2" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="90" t="s">
-        <v>8</v>
+      <c r="AD2" s="120" t="s">
+        <v>292</v>
       </c>
       <c r="AE2" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="AF2" s="91" t="s">
+      <c r="AF2" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="AG2" s="91" t="s">
+      <c r="AG2" s="90" t="s">
         <v>229</v>
       </c>
-      <c r="AH2" s="91" t="s">
+      <c r="AH2" s="90" t="s">
         <v>230</v>
       </c>
-      <c r="AI2" s="92" t="s">
+      <c r="AI2" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
-      <c r="AL2" s="94"/>
-      <c r="AM2" s="94"/>
-      <c r="AN2" s="94"/>
-      <c r="AO2" s="116"/>
+      <c r="AJ2" s="92"/>
+      <c r="AK2" s="92"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="93"/>
+      <c r="AO2" s="115"/>
       <c r="AP2" s="30"/>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3"/>
@@ -5093,34 +5144,34 @@
       <c r="AT2" s="1"/>
     </row>
     <row r="3" spans="1:46" ht="20" customHeight="1">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="E3" s="94" t="s">
         <v>233</v>
       </c>
-      <c r="F3" s="95" t="s">
+      <c r="F3" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="G3" s="96" t="s">
+      <c r="G3" s="95" t="s">
         <v>235</v>
       </c>
       <c r="H3" s="84" t="s">
         <v>211</v>
       </c>
-      <c r="I3" s="97" t="s">
+      <c r="I3" s="96" t="s">
         <v>212</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="J3" s="97" t="s">
         <v>213</v>
       </c>
       <c r="K3" s="84" t="s">
@@ -5132,7 +5183,7 @@
       <c r="M3" s="84" t="s">
         <v>216</v>
       </c>
-      <c r="N3" s="113" t="s">
+      <c r="N3" s="112" t="s">
         <v>288</v>
       </c>
       <c r="O3" s="84" t="s">
@@ -5141,7 +5192,7 @@
       <c r="P3" s="84" t="s">
         <v>218</v>
       </c>
-      <c r="Q3" s="113" t="s">
+      <c r="Q3" s="112" t="s">
         <v>282</v>
       </c>
       <c r="R3" s="84" t="s">
@@ -5150,19 +5201,19 @@
       <c r="S3" s="84" t="s">
         <v>220</v>
       </c>
-      <c r="T3" s="99" t="s">
+      <c r="T3" s="98" t="s">
         <v>221</v>
       </c>
-      <c r="U3" s="95" t="s">
+      <c r="U3" s="94" t="s">
         <v>222</v>
       </c>
-      <c r="V3" s="95" t="s">
+      <c r="V3" s="94" t="s">
         <v>223</v>
       </c>
-      <c r="W3" s="95" t="s">
+      <c r="W3" s="94" t="s">
         <v>224</v>
       </c>
-      <c r="X3" s="96" t="s">
+      <c r="X3" s="95" t="s">
         <v>225</v>
       </c>
       <c r="Y3" s="84" t="s">
@@ -5171,7 +5222,7 @@
       <c r="Z3" s="84" t="s">
         <v>238</v>
       </c>
-      <c r="AA3" s="114" t="s">
+      <c r="AA3" s="113" t="s">
         <v>285</v>
       </c>
       <c r="AB3" s="84" t="s">
@@ -5186,30 +5237,30 @@
       <c r="AE3" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="AF3" s="91" t="s">
+      <c r="AF3" s="90" t="s">
         <v>239</v>
       </c>
-      <c r="AG3" s="91" t="s">
+      <c r="AG3" s="90" t="s">
         <v>240</v>
       </c>
-      <c r="AH3" s="91" t="s">
+      <c r="AH3" s="90" t="s">
         <v>241</v>
       </c>
-      <c r="AI3" s="92" t="s">
+      <c r="AI3" s="91" t="s">
         <v>242</v>
       </c>
-      <c r="AJ3" s="100"/>
-      <c r="AK3" s="100"/>
+      <c r="AJ3" s="99"/>
+      <c r="AK3" s="99"/>
       <c r="AL3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AM3" s="101" t="s">
+      <c r="AM3" s="100" t="s">
         <v>7</v>
       </c>
       <c r="AN3" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="AO3" s="118" t="s">
+      <c r="AO3" s="117" t="s">
         <v>286</v>
       </c>
       <c r="AP3" s="30"/>
@@ -5219,34 +5270,34 @@
       <c r="AT3" s="1"/>
     </row>
     <row r="4" spans="1:46" ht="20" customHeight="1">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="94" t="s">
         <v>244</v>
       </c>
-      <c r="F4" s="95" t="s">
+      <c r="F4" s="94" t="s">
         <v>245</v>
       </c>
-      <c r="G4" s="96" t="s">
+      <c r="G4" s="95" t="s">
         <v>246</v>
       </c>
       <c r="H4" s="84" t="s">
         <v>211</v>
       </c>
-      <c r="I4" s="97" t="s">
+      <c r="I4" s="96" t="s">
         <v>212</v>
       </c>
-      <c r="J4" s="98" t="s">
+      <c r="J4" s="97" t="s">
         <v>213</v>
       </c>
       <c r="K4" s="84" t="s">
@@ -5258,7 +5309,7 @@
       <c r="M4" s="84" t="s">
         <v>216</v>
       </c>
-      <c r="N4" s="113" t="s">
+      <c r="N4" s="112" t="s">
         <v>288</v>
       </c>
       <c r="O4" s="84" t="s">
@@ -5267,7 +5318,7 @@
       <c r="P4" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="Q4" s="114" t="s">
+      <c r="Q4" s="113" t="s">
         <v>283</v>
       </c>
       <c r="R4" s="84" t="s">
@@ -5276,19 +5327,19 @@
       <c r="S4" s="84" t="s">
         <v>250</v>
       </c>
-      <c r="T4" s="99" t="s">
+      <c r="T4" s="98" t="s">
         <v>251</v>
       </c>
-      <c r="U4" s="95" t="s">
+      <c r="U4" s="94" t="s">
         <v>222</v>
       </c>
-      <c r="V4" s="95" t="s">
+      <c r="V4" s="94" t="s">
         <v>252</v>
       </c>
-      <c r="W4" s="95" t="s">
+      <c r="W4" s="94" t="s">
         <v>184</v>
       </c>
-      <c r="X4" s="96" t="s">
+      <c r="X4" s="95" t="s">
         <v>253</v>
       </c>
       <c r="Y4" s="84" t="s">
@@ -5297,7 +5348,7 @@
       <c r="Z4" s="84" t="s">
         <v>255</v>
       </c>
-      <c r="AA4" s="114" t="s">
+      <c r="AA4" s="113" t="s">
         <v>284</v>
       </c>
       <c r="AB4" s="26" t="s">
@@ -5306,7 +5357,7 @@
       <c r="AC4" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="103" t="s">
+      <c r="AD4" s="102" t="s">
         <v>9</v>
       </c>
       <c r="AE4" s="84" t="s">
@@ -5315,27 +5366,27 @@
       <c r="AF4" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="AG4" s="91" t="s">
+      <c r="AG4" s="90" t="s">
         <v>256</v>
       </c>
-      <c r="AH4" s="91" t="s">
+      <c r="AH4" s="90" t="s">
         <v>257</v>
       </c>
-      <c r="AI4" s="92" t="s">
+      <c r="AI4" s="91" t="s">
         <v>258</v>
       </c>
-      <c r="AJ4" s="100"/>
-      <c r="AK4" s="100"/>
+      <c r="AJ4" s="99"/>
+      <c r="AK4" s="99"/>
       <c r="AL4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AM4" s="101" t="s">
+      <c r="AM4" s="100" t="s">
         <v>6</v>
       </c>
       <c r="AN4" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="AO4" s="118" t="s">
+      <c r="AO4" s="117" t="s">
         <v>287</v>
       </c>
       <c r="AP4" s="30"/>
@@ -5358,10 +5409,10 @@
       <c r="K5" s="39"/>
       <c r="L5" s="39"/>
       <c r="M5" s="39"/>
-      <c r="N5" s="110"/>
+      <c r="N5" s="109"/>
       <c r="O5" s="39"/>
       <c r="P5" s="39"/>
-      <c r="Q5" s="110"/>
+      <c r="Q5" s="109"/>
       <c r="R5" s="39"/>
       <c r="S5" s="39"/>
       <c r="T5" s="39"/>
@@ -5371,10 +5422,10 @@
       <c r="X5" s="38"/>
       <c r="Y5" s="39"/>
       <c r="Z5" s="39"/>
-      <c r="AA5" s="110"/>
+      <c r="AA5" s="109"/>
       <c r="AB5" s="39"/>
       <c r="AC5" s="39"/>
-      <c r="AD5" s="104"/>
+      <c r="AD5" s="103"/>
       <c r="AE5" s="39"/>
       <c r="AF5" s="39"/>
       <c r="AG5" s="39"/>
@@ -5385,7 +5436,7 @@
       <c r="AL5" s="38"/>
       <c r="AM5" s="38"/>
       <c r="AN5" s="38"/>
-      <c r="AO5" s="117"/>
+      <c r="AO5" s="116"/>
       <c r="AP5" s="3"/>
       <c r="AQ5" s="3"/>
       <c r="AR5" s="3"/>
@@ -5406,10 +5457,10 @@
       <c r="K6" s="42"/>
       <c r="L6" s="42"/>
       <c r="M6" s="42"/>
-      <c r="N6" s="111"/>
+      <c r="N6" s="110"/>
       <c r="O6" s="42"/>
       <c r="P6" s="42"/>
-      <c r="Q6" s="111"/>
+      <c r="Q6" s="110"/>
       <c r="R6" s="42"/>
       <c r="S6" s="42"/>
       <c r="T6" s="42"/>
@@ -5419,7 +5470,7 @@
       <c r="X6" s="42"/>
       <c r="Y6" s="42"/>
       <c r="Z6" s="42"/>
-      <c r="AA6" s="111"/>
+      <c r="AA6" s="110"/>
       <c r="AB6" s="42"/>
       <c r="AC6" s="42"/>
       <c r="AD6" s="42"/>
@@ -5433,7 +5484,7 @@
       <c r="AL6" s="42"/>
       <c r="AM6" s="42"/>
       <c r="AN6" s="42"/>
-      <c r="AO6" s="111"/>
+      <c r="AO6" s="110"/>
       <c r="AP6" s="3"/>
       <c r="AQ6" s="3"/>
       <c r="AR6" s="3"/>
@@ -5454,10 +5505,10 @@
       <c r="K7" s="42"/>
       <c r="L7" s="42"/>
       <c r="M7" s="42"/>
-      <c r="N7" s="111"/>
+      <c r="N7" s="110"/>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
-      <c r="Q7" s="111"/>
+      <c r="Q7" s="110"/>
       <c r="R7" s="42"/>
       <c r="S7" s="42"/>
       <c r="T7" s="42"/>
@@ -5467,7 +5518,7 @@
       <c r="X7" s="42"/>
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
-      <c r="AA7" s="111"/>
+      <c r="AA7" s="110"/>
       <c r="AB7" s="42"/>
       <c r="AC7" s="42"/>
       <c r="AD7" s="42"/>
@@ -5481,7 +5532,7 @@
       <c r="AL7" s="42"/>
       <c r="AM7" s="42"/>
       <c r="AN7" s="42"/>
-      <c r="AO7" s="111"/>
+      <c r="AO7" s="110"/>
       <c r="AP7" s="3"/>
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
@@ -5502,10 +5553,10 @@
       <c r="K8" s="42"/>
       <c r="L8" s="42"/>
       <c r="M8" s="42"/>
-      <c r="N8" s="111"/>
+      <c r="N8" s="110"/>
       <c r="O8" s="42"/>
       <c r="P8" s="42"/>
-      <c r="Q8" s="111"/>
+      <c r="Q8" s="110"/>
       <c r="R8" s="42"/>
       <c r="S8" s="42"/>
       <c r="T8" s="42"/>
@@ -5515,7 +5566,7 @@
       <c r="X8" s="42"/>
       <c r="Y8" s="42"/>
       <c r="Z8" s="42"/>
-      <c r="AA8" s="111"/>
+      <c r="AA8" s="110"/>
       <c r="AB8" s="42"/>
       <c r="AC8" s="42"/>
       <c r="AD8" s="42"/>
@@ -5529,7 +5580,7 @@
       <c r="AL8" s="42"/>
       <c r="AM8" s="42"/>
       <c r="AN8" s="42"/>
-      <c r="AO8" s="111"/>
+      <c r="AO8" s="110"/>
       <c r="AP8" s="3"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
@@ -5550,10 +5601,10 @@
       <c r="K9" s="45"/>
       <c r="L9" s="45"/>
       <c r="M9" s="45"/>
-      <c r="N9" s="112"/>
+      <c r="N9" s="111"/>
       <c r="O9" s="45"/>
       <c r="P9" s="45"/>
-      <c r="Q9" s="112"/>
+      <c r="Q9" s="111"/>
       <c r="R9" s="45"/>
       <c r="S9" s="45"/>
       <c r="T9" s="45"/>
@@ -5563,7 +5614,7 @@
       <c r="X9" s="45"/>
       <c r="Y9" s="45"/>
       <c r="Z9" s="45"/>
-      <c r="AA9" s="112"/>
+      <c r="AA9" s="111"/>
       <c r="AB9" s="45"/>
       <c r="AC9" s="45"/>
       <c r="AD9" s="45"/>
@@ -5577,7 +5628,7 @@
       <c r="AL9" s="45"/>
       <c r="AM9" s="45"/>
       <c r="AN9" s="45"/>
-      <c r="AO9" s="112"/>
+      <c r="AO9" s="111"/>
       <c r="AP9" s="5"/>
       <c r="AQ9" s="5"/>
       <c r="AR9" s="5"/>
